--- a/medicine/Enfance/Les_Enfants_de_Timpelbach/Les_Enfants_de_Timpelbach.xlsx
+++ b/medicine/Enfance/Les_Enfants_de_Timpelbach/Les_Enfants_de_Timpelbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ville sans parents? Le rêve! Et pourtant, la situation n’est pas si idéale… Comment remettre le téléphone en marche, remplir le réfrigérateur, et lui dire contre la bande des pirates dirigée par le redoutable Oscar? Avec un peu d’astuces, de bonne humeur et d’organisation, les enfants devraient pouvoir s’en sortir !
 Les Enfants de Timpelbach (titre original : Timpetill, Die Stadt ohne Eltern - littéralement : Timpetill, la ville sans parents - puis Timpetill), est un roman pour la jeunesse de l'écrivain allemand Henry Winterfeld, paru en 1937 en Suisse sous le pseudonyme d'auteur Manfred Michael. En France, il est publié pour la première fois en 1957 chez Hachette. Il a été adapté au cinéma par Nicolas Bary en 2008.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Timpelbach est un village médiéval semblant calme et paisible. Mais il ne l'est pas totalement. En effet, depuis quelque temps les enfants multiplient farces et mauvais coups contre leurs camarades et contre leurs parents. La bande des vilains se nomme Pirates. Exaspérés les adultes choisissent d'effrayer les enfants en les abandonnant une journée entière, en faisant semblant de partir à tout jamais.
 Mais l'aventure tourne mal lorsque les parents, perdus dans la forêt, sont arrêtés par des soldats étrangers qui les accusent de tenter une invasion de leur pays.
@@ -546,7 +560,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1957 : Les Enfants de Timpelbach - Hachette, collection Idéal-Bibliothèque no 125, traduction d'Olivier Séchan, illustrations de Jacques Pecnard, 191 p.
 1972 : Les Débrouillards de Timpelbach - Hachette, collection Bibliothèque rose no 11, traduction d'Olivier Séchan, illustrations de Jacques Fromont, 186 p.
@@ -579,7 +595,9 @@
           <t>Adaptation au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2009 : Les Enfants de Timpelbach, film français de Nicolas Bary avec, dans les seconds rôles, Carole Bouquet et Gérard Depardieu.</t>
         </is>
